--- a/Assets/Resources/DataSet/EnemyData.xlsx
+++ b/Assets/Resources/DataSet/EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Adven\Assets\Resources\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC59B13-8C38-4A23-8EE2-9D56E58F25E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19ABF90-A700-449F-88DA-74CF3A72DA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -273,6 +273,23 @@
   </si>
   <si>
     <t>5_wave4_적_04</t>
+  </si>
+  <si>
+    <t>resourcesPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/20002</t>
+  </si>
+  <si>
+    <t>Character/20003</t>
+  </si>
+  <si>
+    <t>Character/20004</t>
   </si>
 </sst>
 </file>
@@ -634,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,7 +664,7 @@
     <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,8 +683,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>111</v>
       </c>
@@ -686,8 +706,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>112</v>
       </c>
@@ -706,8 +729,11 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>113</v>
       </c>
@@ -726,8 +752,11 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>114</v>
       </c>
@@ -746,8 +775,11 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>121</v>
       </c>
@@ -766,8 +798,11 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>122</v>
       </c>
@@ -786,8 +821,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>123</v>
       </c>
@@ -806,8 +844,11 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>124</v>
       </c>
@@ -826,8 +867,11 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>131</v>
       </c>
@@ -846,8 +890,11 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>132</v>
       </c>
@@ -866,8 +913,11 @@
       <c r="F11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>133</v>
       </c>
@@ -886,8 +936,11 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>134</v>
       </c>
@@ -906,8 +959,11 @@
       <c r="F13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>141</v>
       </c>
@@ -926,8 +982,11 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>142</v>
       </c>
@@ -946,8 +1005,11 @@
       <c r="F15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>143</v>
       </c>
@@ -966,8 +1028,11 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>144</v>
       </c>
@@ -986,8 +1051,11 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>211</v>
       </c>
@@ -1006,8 +1074,11 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>212</v>
       </c>
@@ -1026,8 +1097,11 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>213</v>
       </c>
@@ -1046,8 +1120,11 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>214</v>
       </c>
@@ -1066,8 +1143,11 @@
       <c r="F21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>221</v>
       </c>
@@ -1086,8 +1166,11 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>222</v>
       </c>
@@ -1106,8 +1189,11 @@
       <c r="F23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>223</v>
       </c>
@@ -1126,8 +1212,11 @@
       <c r="F24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>224</v>
       </c>
@@ -1146,8 +1235,11 @@
       <c r="F25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>231</v>
       </c>
@@ -1166,8 +1258,11 @@
       <c r="F26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>232</v>
       </c>
@@ -1186,8 +1281,11 @@
       <c r="F27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>233</v>
       </c>
@@ -1206,8 +1304,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>234</v>
       </c>
@@ -1226,8 +1327,11 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>241</v>
       </c>
@@ -1246,8 +1350,11 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>242</v>
       </c>
@@ -1266,8 +1373,11 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>243</v>
       </c>
@@ -1286,8 +1396,11 @@
       <c r="F32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>244</v>
       </c>
@@ -1306,8 +1419,11 @@
       <c r="F33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>311</v>
       </c>
@@ -1326,8 +1442,11 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>312</v>
       </c>
@@ -1346,8 +1465,11 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>313</v>
       </c>
@@ -1366,8 +1488,11 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>314</v>
       </c>
@@ -1386,8 +1511,11 @@
       <c r="F37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>321</v>
       </c>
@@ -1406,8 +1534,11 @@
       <c r="F38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>322</v>
       </c>
@@ -1426,8 +1557,11 @@
       <c r="F39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>323</v>
       </c>
@@ -1446,8 +1580,11 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>324</v>
       </c>
@@ -1466,8 +1603,11 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>331</v>
       </c>
@@ -1486,8 +1626,11 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>332</v>
       </c>
@@ -1506,8 +1649,11 @@
       <c r="F43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>333</v>
       </c>
@@ -1526,8 +1672,11 @@
       <c r="F44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>334</v>
       </c>
@@ -1546,8 +1695,11 @@
       <c r="F45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>341</v>
       </c>
@@ -1566,8 +1718,11 @@
       <c r="F46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>342</v>
       </c>
@@ -1586,8 +1741,11 @@
       <c r="F47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>343</v>
       </c>
@@ -1606,8 +1764,11 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>344</v>
       </c>
@@ -1626,8 +1787,11 @@
       <c r="F49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>411</v>
       </c>
@@ -1646,8 +1810,11 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>412</v>
       </c>
@@ -1666,8 +1833,11 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>413</v>
       </c>
@@ -1686,8 +1856,11 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>414</v>
       </c>
@@ -1706,8 +1879,11 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>421</v>
       </c>
@@ -1726,8 +1902,11 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>422</v>
       </c>
@@ -1746,8 +1925,11 @@
       <c r="F55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>423</v>
       </c>
@@ -1766,8 +1948,11 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>424</v>
       </c>
@@ -1786,8 +1971,11 @@
       <c r="F57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>431</v>
       </c>
@@ -1806,8 +1994,11 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>432</v>
       </c>
@@ -1826,8 +2017,11 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>433</v>
       </c>
@@ -1846,8 +2040,11 @@
       <c r="F60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>434</v>
       </c>
@@ -1866,8 +2063,11 @@
       <c r="F61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>441</v>
       </c>
@@ -1886,8 +2086,11 @@
       <c r="F62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>442</v>
       </c>
@@ -1906,8 +2109,11 @@
       <c r="F63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>443</v>
       </c>
@@ -1926,8 +2132,11 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>444</v>
       </c>
@@ -1946,8 +2155,11 @@
       <c r="F65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>511</v>
       </c>
@@ -1966,8 +2178,11 @@
       <c r="F66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>512</v>
       </c>
@@ -1986,8 +2201,11 @@
       <c r="F67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>513</v>
       </c>
@@ -2006,8 +2224,11 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>514</v>
       </c>
@@ -2026,8 +2247,11 @@
       <c r="F69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>521</v>
       </c>
@@ -2046,8 +2270,11 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>522</v>
       </c>
@@ -2066,8 +2293,11 @@
       <c r="F71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>523</v>
       </c>
@@ -2086,8 +2316,11 @@
       <c r="F72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>524</v>
       </c>
@@ -2106,8 +2339,11 @@
       <c r="F73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>531</v>
       </c>
@@ -2126,8 +2362,11 @@
       <c r="F74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>532</v>
       </c>
@@ -2146,8 +2385,11 @@
       <c r="F75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>533</v>
       </c>
@@ -2166,8 +2408,11 @@
       <c r="F76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>534</v>
       </c>
@@ -2186,8 +2431,11 @@
       <c r="F77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>541</v>
       </c>
@@ -2206,8 +2454,11 @@
       <c r="F78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>542</v>
       </c>
@@ -2226,8 +2477,11 @@
       <c r="F79" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>543</v>
       </c>
@@ -2246,8 +2500,11 @@
       <c r="F80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>544</v>
       </c>
@@ -2265,6 +2522,9 @@
       </c>
       <c r="F81" s="1">
         <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/DataSet/EnemyData.xlsx
+++ b/Assets/Resources/DataSet/EnemyData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ycys5\Adven\Assets\Resources\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\104_19\Adven\Assets\Resources\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D2DAF-0508-401F-A521-9E487D617BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,15 +246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Character/20002</t>
-  </si>
-  <si>
-    <t>Character/20003</t>
-  </si>
-  <si>
-    <t>Character/20004</t>
-  </si>
-  <si>
     <t>1_wave1_적_01</t>
   </si>
   <si>
@@ -305,12 +295,24 @@
   </si>
   <si>
     <t>Character/20001</t>
+  </si>
+  <si>
+    <t>Character/S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Crab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/Goblin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -720,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R64" sqref="R64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -762,7 +764,7 @@
         <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3">
         <v>150</v>
@@ -777,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1">
@@ -785,7 +787,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4">
         <v>150</v>
@@ -800,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.25" thickBot="1">
@@ -808,7 +810,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="4">
         <v>150</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1">
@@ -831,7 +833,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4">
         <v>175</v>
@@ -846,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1">
@@ -854,7 +856,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4">
         <v>150</v>
@@ -869,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1">
@@ -877,7 +879,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4">
         <v>150</v>
@@ -892,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1">
@@ -900,7 +902,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4">
         <v>150</v>
@@ -915,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1">
@@ -923,7 +925,7 @@
         <v>124</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4">
         <v>175</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.25" thickBot="1">
@@ -946,7 +948,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4">
         <v>150</v>
@@ -961,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1">
@@ -969,7 +971,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4">
         <v>150</v>
@@ -984,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.25" thickBot="1">
@@ -992,7 +994,7 @@
         <v>133</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4">
         <v>150</v>
@@ -1007,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickBot="1">
@@ -1015,7 +1017,7 @@
         <v>134</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4">
         <v>175</v>
@@ -1030,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1">
@@ -1038,7 +1040,7 @@
         <v>141</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="4">
         <v>150</v>
@@ -1053,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1">
@@ -1061,7 +1063,7 @@
         <v>142</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4">
         <v>150</v>
@@ -1076,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickBot="1">
@@ -1084,22 +1086,22 @@
         <v>143</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="4">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.25" thickBot="1">
@@ -1107,16 +1109,16 @@
         <v>144</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" thickBot="1">
@@ -1168,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" thickBot="1">
@@ -1191,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1">
@@ -1214,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" thickBot="1">
@@ -1237,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1">
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.25" thickBot="1">
@@ -1283,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1">
@@ -1329,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" thickBot="1">
@@ -1352,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1">
@@ -1375,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.25" thickBot="1">
@@ -1398,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.25" thickBot="1">
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1">
@@ -1444,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1">
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1">
@@ -1490,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
@@ -1513,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1">
@@ -1536,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1">
@@ -1559,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1">
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" thickBot="1">
@@ -1605,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.25" thickBot="1">
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1">
@@ -1651,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.25" thickBot="1">
@@ -1674,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1">
@@ -1697,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.25" thickBot="1">
@@ -1720,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1">
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" thickBot="1">
@@ -1766,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1">
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" thickBot="1">
@@ -1812,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1">
@@ -1835,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.25" thickBot="1">
@@ -1858,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.25" thickBot="1">
@@ -1881,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.25" thickBot="1">
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.25" thickBot="1">
@@ -1927,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.25" thickBot="1">
@@ -1950,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.25" thickBot="1">
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.25" thickBot="1">
@@ -1996,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" thickBot="1">
@@ -2019,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.25" thickBot="1">
@@ -2042,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.25" thickBot="1">
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" thickBot="1">
@@ -2088,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.25" thickBot="1">
@@ -2111,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.25" thickBot="1">
@@ -2134,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.25" thickBot="1">
@@ -2157,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.25" thickBot="1">
@@ -2180,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.25" thickBot="1">
@@ -2203,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.25" thickBot="1">
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.25" thickBot="1">
@@ -2249,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.25" thickBot="1">
@@ -2272,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.25" thickBot="1">
@@ -2295,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.25" thickBot="1">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.25" thickBot="1">
@@ -2341,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.25" thickBot="1">
@@ -2364,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.25" thickBot="1">
@@ -2387,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.25" thickBot="1">
@@ -2410,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.25" thickBot="1">
@@ -2433,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.25" thickBot="1">
@@ -2456,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.25" thickBot="1">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.25" thickBot="1">
@@ -2502,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.25" thickBot="1">
@@ -2525,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.25" thickBot="1">
@@ -2548,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.25" thickBot="1">
@@ -2571,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.25" thickBot="1">
@@ -2594,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
